--- a/src/main/resources/网站数据.xlsx
+++ b/src/main/resources/网站数据.xlsx
@@ -27,15 +27,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>日期</t>
   </si>
   <si>
-    <t>用户数</t>
+    <t>最高温度</t>
+  </si>
+  <si>
+    <t>最低温度</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -48,10 +56,61 @@
     </r>
   </si>
   <si>
+    <t>10°C</t>
+  </si>
+  <si>
+    <t>-5°C</t>
+  </si>
+  <si>
     <t>2号</t>
   </si>
   <si>
+    <t>15°C</t>
+  </si>
+  <si>
+    <t>-4°C</t>
+  </si>
+  <si>
     <t>3号</t>
+  </si>
+  <si>
+    <t>16°C</t>
+  </si>
+  <si>
+    <t>-8°C</t>
+  </si>
+  <si>
+    <t>4号</t>
+  </si>
+  <si>
+    <t>13°C</t>
+  </si>
+  <si>
+    <t>-2°C</t>
+  </si>
+  <si>
+    <t>5号</t>
+  </si>
+  <si>
+    <t>8°C</t>
+  </si>
+  <si>
+    <t>-6°C</t>
+  </si>
+  <si>
+    <t>6号</t>
+  </si>
+  <si>
+    <t>6°C</t>
+  </si>
+  <si>
+    <t>-10°C</t>
+  </si>
+  <si>
+    <t>7号</t>
+  </si>
+  <si>
+    <t>11°C</t>
   </si>
 </sst>
 </file>
@@ -696,6 +755,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1015,44 +1077,100 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="23.25" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="23.25" outlineLevelRow="7" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>30</v>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
